--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_623.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_623.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33112-d84396-Reviews-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>226</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Ramada-By-Wyndham-South-El-Monte.h19574.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_623.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Yvette M</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Redhatann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r551357180-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>joelsD418SD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r543916469-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>producerkym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r535181229-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -225,6 +237,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>213artg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r534454638-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -243,6 +258,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>rew3rew3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r530947699-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -261,6 +279,9 @@
     <t>I like Ramada and have never had a bad experience with them until this particular hotel. I'm ok if the facility is not the newest, but they need to spend some money on maintenance. The staff also needs some training in how to provide acceptable customer service. Being unfriendly and unhelpful just isn't what one should have to tolerate when spending money on a service. My wife had to complain about ants in the bathroom; and the staff wasn't too quick to respond. My wife travels with her own blanket and pillow. When the room was cleaned, the staff balled up her blanket and pillow and just left then on the dresser. Her last night there (needing to be at the airport by 8:30) was the worst night. There was an event where the music was so loud (my wife couldn't listen to the TV), multiple guest complained. The front desk responded by saying they couldn't ask them to turn down the music because they paid to have their event there. Well what about all the guest that were paying to stay at the hotel? The response was just as uncaring as could be. I will definitely be call Ramada corporate headquarters to file a complaint. I don't know if these people acted this way because this is a franchise location, but the owner needs to retrain his staff. I would NEVER stay at this place and recommend people avoid...I like Ramada and have never had a bad experience with them until this particular hotel. I'm ok if the facility is not the newest, but they need to spend some money on maintenance. The staff also needs some training in how to provide acceptable customer service. Being unfriendly and unhelpful just isn't what one should have to tolerate when spending money on a service. My wife had to complain about ants in the bathroom; and the staff wasn't too quick to respond. My wife travels with her own blanket and pillow. When the room was cleaned, the staff balled up her blanket and pillow and just left then on the dresser. Her last night there (needing to be at the airport by 8:30) was the worst night. There was an event where the music was so loud (my wife couldn't listen to the TV), multiple guest complained. The front desk responded by saying they couldn't ask them to turn down the music because they paid to have their event there. Well what about all the guest that were paying to stay at the hotel? The response was just as uncaring as could be. I will definitely be call Ramada corporate headquarters to file a complaint. I don't know if these people acted this way because this is a franchise location, but the owner needs to retrain his staff. I would NEVER stay at this place and recommend people avoid it.More</t>
   </si>
   <si>
+    <t>N5006RWjosec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r522687904-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -276,6 +297,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>flaglocal2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r517452111-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -294,6 +318,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>daveaB3346SU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r514357209-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t>9 day stay with very friendly, helpful staff. A great place with big clean rooms. The rate was dodo very reasonable.</t>
   </si>
   <si>
+    <t>juliao271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r504596533-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -321,6 +351,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Christine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r503200881-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -330,6 +363,9 @@
     <t>07/18/2017</t>
   </si>
   <si>
+    <t>T2176RFscottm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r500103398-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Z6317MEchristinah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r487161114-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -360,6 +399,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>kevinpF9892AV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r486969334-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -372,6 +414,9 @@
     <t>Booked May 9th thru May 15th thru Hotels.com. Confirmation number: 8086806942288    When I received my bill (thru Hotels.com) I was charged for an additional night (aprox $100).  Called Hotels.com who put me in touch with the local hotel, and was told it is 'probably' t the debut card hold - even tho I didn't use a debit car. Said the amount should be credited.  Not resolved as of May 23rd,</t>
   </si>
   <si>
+    <t>briansR1903XX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r484808689-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -381,6 +426,9 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>nick913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r475995614-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -399,6 +447,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>jonherdz24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r475298333-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -414,6 +465,9 @@
     <t xml:space="preserve">Check in was fast and easy and the room was clean,beds are very comfortable will definetly come back </t>
   </si>
   <si>
+    <t>Scotty B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r472703913-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -426,6 +480,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Taryne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r462844310-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -444,6 +501,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>I9422XPjoser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r461877849-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -453,6 +513,9 @@
     <t>02/21/2017</t>
   </si>
   <si>
+    <t>pattyar123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r460239740-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -462,6 +525,9 @@
     <t>02/15/2017</t>
   </si>
   <si>
+    <t>keithbW2841CX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r452686611-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -474,6 +540,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>markeY729LG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r452192762-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -486,6 +555,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>yvonnebP8840KN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r447646610-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -498,6 +570,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>307darinj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r437820387-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -513,6 +588,9 @@
     <t xml:space="preserve">As has been the case in the past, my stay at the Ramada in South El Monte was without complaint.  Room was clean, with working TVs, lights, A/C, and everything else we needed.  </t>
   </si>
   <si>
+    <t>Jessie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r437260907-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -522,6 +600,9 @@
     <t>11/14/2016</t>
   </si>
   <si>
+    <t>Hollis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r435623505-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -537,6 +618,9 @@
     <t>Great people at the front desk, but the hotel smells old, lots of broken items - the shower faucet was terrible, the sink drain was plugged, the toilet kept running, hanging light was loose, all in all not a great place to stay.</t>
   </si>
   <si>
+    <t>Q5635LKsteves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r428916324-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -549,6 +633,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>T3506NQrichardj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r426387585-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -567,6 +654,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>MrAnderson949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r425046050-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -585,6 +675,9 @@
     <t>I have stayed at this hotel 2 or 3 times a year for over 10 years because it's very convenient to my business when I come into town. I am a repeat customer, but will NEVER stay here again. My flight into town was a fairly early one. I arrived at the hotel at noon and asked if there were rooms available to check in. I had stated on my reservation a request for early check in. I was told that there were rooms available but that I would have to pay a $30 "early check in fee." AT NOON??????? WHEN ROOMS ARE AVAILABLE?? This was such a ridiculous ripoff. I paid the fee because I had been traveling and wanted rest, but i will NEVER stay here again. You got your 30 bucks, but lost a customer who has probably spent $4,000 - $5,000 over the years at your hotel.More</t>
   </si>
   <si>
+    <t>479heribertoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r418906146-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -600,6 +693,9 @@
     <t>At check in, they were very ill prepared and seem to be confused. Speaking in their native language in front of us was very rude and poor customer service overall.</t>
   </si>
   <si>
+    <t>498lucyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r417488264-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -609,6 +705,9 @@
     <t>09/12/2016</t>
   </si>
   <si>
+    <t>744jennid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r412975718-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -621,6 +720,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>crystalv674</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r406212924-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -636,6 +738,9 @@
     <t>The rooms were very spacious. I enjoyed the stay and so did my family. However, the appearance on the outside of the building didn't look clean or safe. Although the interior of the building was clean and nice. Great hotel!</t>
   </si>
   <si>
+    <t>sandrabV528SM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r404557014-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -648,6 +753,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>anajlopez21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r403460948-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -666,6 +774,9 @@
     <t>Got a 2 bed room. Both beds were broken. Telephone didn't work so we can notify the front desk about out issue. Called from our phone. Moved us to a cheaper room, smelled of smoke , sheets were not comfortable. Woke up with bites all over our legs. The refrigerator was smaller so we could fit our food. My 3 year old was not comfortable . They moved us out of our crappy room to a crappier room. All we got was a ten dollar discount. And my daughter didn't even get to use the pool because it was closed . Check the beds and sheets before you sleep. This by far was the worst experience ever.More</t>
   </si>
   <si>
+    <t>Christopher M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r393763035-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -675,6 +786,9 @@
     <t>07/17/2016</t>
   </si>
   <si>
+    <t>Praveen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r392909226-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -690,6 +804,9 @@
     <t xml:space="preserve">The Room, Bed and bathroom were clean.  I had good rest.  Thank you very much.  I really hope that the Internet connection issues are taken care off soon. </t>
   </si>
   <si>
+    <t>williamgP5778RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r386176296-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -708,6 +825,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>rosamarial944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r382510647-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -717,6 +837,9 @@
     <t>06/14/2016</t>
   </si>
   <si>
+    <t>729elizabethv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r378653365-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -729,6 +852,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Hula324</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r367628663-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -768,6 +894,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>kimcI3070AY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r356141075-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -783,6 +912,9 @@
     <t>They billed me extra 60.00 for cleaning deposit and didn't disclose charges I found out my checking my bank account very fraudulent</t>
   </si>
   <si>
+    <t>LaTrice P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r356014433-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -795,6 +927,9 @@
     <t>The resort and room was comfortable, but it wasn't clean enough. Dirty walls bathroom walls dirty and door dirty. Great location.</t>
   </si>
   <si>
+    <t>Z191KPmarys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r341781072-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -807,6 +942,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>bergie77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r337559584-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -825,6 +963,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Greg B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r337327304-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -840,6 +981,9 @@
     <t>The Ramada Inn was like most, large and elegant.  The problem it it needs a facelift or remodeling soon.The staff was pleasant and gave us good advice about restaurants etc.The restaurant was very good, Lots of food and very well prepared.</t>
   </si>
   <si>
+    <t>Aston B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r335796308-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -861,6 +1005,9 @@
     <t>Big Place, lots of levels...nice rooms but two problems..Since it is three stories on a large property, you really do need help getting your bags up to the rooms..and there doesn't seem to be anyone there to help at some odd hours..One other thing..All rooms have a lousy little coffee machine and microwave, but if you want some decent morning coffee and a little Continental Breakfast you either have to order room service for around $10 bucks, or go down to the Courtyard Restaurant and pay even more for a complete Breakfast...When I asked if I could just get coffee in the morning, the desk person told me "you can go to the gas station across the street for coffee"..At the prices they charge, they could have a little coffee and donut bar set up in the lobby..I didn't appreciate this..but the mostly Oriental Guests just except anything, it seems. And the view from most rooms is either an empty lot, a gas station or a very, very busy Freeway....More</t>
   </si>
   <si>
+    <t>cjd2626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r333612175-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -870,6 +1017,9 @@
     <t>12/17/2015</t>
   </si>
   <si>
+    <t>kingkakeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r331315214-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -885,6 +1035,9 @@
     <t>I have been staying in the LA area about 6 days a week at different hotels for the last year and two months for work.  This is by far my favorite.  I love he floor plan, friendly staff, comfortable beds, and etc.  Too bad it took me so long to find this hotel, but better late than never.  This location has a customer for the foreseeable future.</t>
   </si>
   <si>
+    <t>tommyd1017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r319139090-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -903,6 +1056,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>KarenUnterwegs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r314908719-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -915,6 +1071,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>ptrckroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r312865072-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -930,6 +1089,9 @@
     <t>Hotel needs being refurbished a bit... But overall ok, the place was quiet during my stay, it was clean and I had access to internet - Since it was a business trip, I didn't needed much. Second night, it was raining outside and ceilling started dripping - The staff manage to transfer me in another room quickly and I was offered help...</t>
   </si>
   <si>
+    <t>A4688YMdiegob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r301928930-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -948,6 +1110,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Mo Kan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r300455350-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -963,12 +1128,18 @@
     <t>eventhough they said there is wifi, but you have to bring your lap top to the front door of your room to get connection, signal is so weak....</t>
   </si>
   <si>
+    <t>301drakek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r300364816-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
     <t>300364816</t>
   </si>
   <si>
+    <t>579sanchezm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r292787633-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -981,6 +1152,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>56desid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r292423021-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -990,6 +1164,9 @@
     <t>07/25/2015</t>
   </si>
   <si>
+    <t>sotoycs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r287442498-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1008,6 +1185,9 @@
     <t>I liked the separate living area and balcony. I like that they provided room service. Although, the restaurant food was mediocre. The rooms were a bit dated but everything was in good working condition.The fitness room was literally a gutted hotel room with no ventilation so I had to keep the door open whenever I worked out. Overall, it was a really good value for the price. The room had a bar (minus the alcohol), a mini fridge, and microwave. Housekeeping came by everyday to tidy up. The location is convenient to the freeway and a inexpensive uber ride into LA. The hotel and property is clean and employees were very pleasant and accommodating. It's a good place to stay on a budget and would definitely  recommend.More</t>
   </si>
   <si>
+    <t>Dan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r277892415-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1026,6 +1206,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>406pattyt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r272761195-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1038,6 +1221,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Cassie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r272666680-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1068,6 +1254,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Karla P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r262725563-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1086,6 +1275,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Cmaldonado19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r261789261-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1104,6 +1296,9 @@
     <t>Came to stay here because I was in the area for business and this is where my company put me but I couldn't of been more disappointed.. Room was clean but super noisy, walls are thin and could hear everyone around me. There were always people outside my room which didn't make me feel safe. Restaurant was always closed and nothing else offered as far as food amenities. The staff was very rude and I got nothing but dirty looks passing through the lobby.. I definitely wouldn't recommend this place to anyone other then for the convienence of being so close to the fwy. If it wasn't for my company comping the room for my stay I would have left. Needs workMore</t>
   </si>
   <si>
+    <t>H7262GXdavidb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r253365871-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1116,6 +1311,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Q1025VImarkj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r252133168-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1134,6 +1332,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>bobe375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r250042214-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1149,6 +1350,9 @@
     <t>Your hotel takes photo copies of my credit card and drivers license appon checkin. This is not proper. It makes me vulnerable to identity theft. No other hotel I have ever stayed at, even overseas, has ever done this. I will not stay at this hotel again and likely will not stay at Wyndham again as the manager explained this was the policy. Had I not been already onsite and subject to cancelation penalty and was in need of the room, I would have walked out. I feel very exposed and anxious about this stay.</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r248556992-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1158,6 +1362,9 @@
     <t>01/09/2015</t>
   </si>
   <si>
+    <t>C4472WJdavidw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r248280012-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1173,6 +1380,9 @@
     <t xml:space="preserve">Good value for the price. Close to freeway, rooms adequate, in need of some updating. It was a holiday and restaurant was not open. Very closed, easy drive to Pasadena for Rose Parade.  </t>
   </si>
   <si>
+    <t>404jeffn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r247472935-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1182,6 +1392,9 @@
     <t>01/04/2015</t>
   </si>
   <si>
+    <t>925sm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r245420974-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1197,6 +1410,9 @@
     <t xml:space="preserve">Nice sized room and comfortable bed, but the room needs work badly.  Looks like someone kicked out the bathroom door, broken moulding and missing paint on door.  Repaired very badly.  Floor in bathroom poorly finished.  Close to freeway and noisey street. </t>
   </si>
   <si>
+    <t>elizabethpena</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r244899901-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1206,6 +1422,9 @@
     <t>12/17/2014</t>
   </si>
   <si>
+    <t>Joanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r240294673-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1224,6 +1443,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Enrique R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r229323537-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1236,6 +1458,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Jagannadha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r227884327-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1245,6 +1470,9 @@
     <t>09/09/2014</t>
   </si>
   <si>
+    <t>unirose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r226535408-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1263,6 +1491,9 @@
     <t>Stayed here for a month off and on therefore I experieced interactions with different staff and stayed @ different rooms at different times through the month. I also stayed at other hotels in the nearby cities. As it has features that other places don't. For me, for the price this is one of the best places in the area!  It's right by the freeway and a big park, so its conveniently located. There's a safe and iron with ironing board in the room. Rooms also come with a small fridge and microwave.  I like the idea of having a door between the small living area and the bedroom area.The grounds include a restaurant which has happy hour, &amp; descent food, also a swimming pool, and a small excercise room.  The only complain would be that on 1 occasion i requested a non smoking room and was placed in a smoking room that smelled of cigarettes.  For the most part all was good and staff was very  friendly and helpful. More</t>
   </si>
   <si>
+    <t>SynthPopLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r223734021-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1275,6 +1506,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>JDubz410</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r222371343-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1293,6 +1527,9 @@
     <t>My brother who lives a couple of towns over (Pico Rivera) suggested this hotel, as most of the ones in the area seem sketchy. Typically, reviews on Trip Advisor were mixed and some seemed a bit critical but I gave it a shot. Ended up with a very nice suite which had more than enough room, seemed recently updated with wall-mounted flat screens both in the living room and bedroom. Was very clean, loved the balcony and proximity to the ice &amp; soda machines. It's near the highway and there were some lively events in the conference rooms, but once in the room it was very quiet &amp; bed was comfy. Unfortunately I didn't get to try the available room service (complete with Chinese food dishes, bold given the area was flush with great Asian food) as it stopped a bit early (9 pm), but had reasonably priced selections. Definitely will stay again when in the San Gabriel Valley, great value and front desk staff was very pleasant!!More</t>
   </si>
   <si>
+    <t>Maria T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r218688667-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1314,6 +1551,9 @@
     <t>We stayed July 27th thru July 30th...this was the worst place I have ever stayed at!! We checked in and were given a room on the first level.  When I opened the door I saw the room was dirty and there were luggage still there?? So, I went back to the front desk and they apologized and gave me another room on the 4th level.  This was an upgrade...NOT! The room was so out dated and smelled like mildew. The bathroom was dirty that I was afraid to shower.  In the morning I tried to check out but was told by management I could not get a refund for the other 2 days I paid for! So she gave me several rooms to pick from...I was better off sleeping in the lobby! Finally I found a room but the shower knob broke off when I tried to shower. REALLY!! I had to call the front desk to request maintenance. There  was also a pipe from the ceiling coming down to drain into the tube! How GROSS is that! Like I said if you are looking for a bad experience this is the place to stay.More</t>
   </si>
   <si>
+    <t>tl4tl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r209657271-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1332,6 +1572,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Aaron C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r207729373-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1344,6 +1587,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Benton C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r207024548-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1362,6 +1608,9 @@
     <t>I spent four nights here recently and was very pleased with my stay, especially since it was only $80/night.  The room was clean and the furnishings were in great condition.  A few more outlets around the bed would have been nice.  The bathroom was okay, the toilet ran and the shower head was way too low for me and I'm not very tall.  That was really the only problem I found with the room.  The free continental breakfast left a little to be desired but at least it was free.  It was also nice that the hotel was right off the freeway so I could easily get to where I was working for the week.  If I go back for work in El Monte in the future I would definitely consider staying here again.More</t>
   </si>
   <si>
+    <t>Jake C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r205669610-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1371,6 +1620,9 @@
     <t>05/15/2014</t>
   </si>
   <si>
+    <t>maribel1990</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r204471238-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1380,6 +1632,9 @@
     <t>05/07/2014</t>
   </si>
   <si>
+    <t>Ken M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r203997987-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1392,6 +1647,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Gilbert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r196194428-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1404,6 +1662,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Ruth A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r192619190-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1416,12 +1677,18 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Augie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r192590770-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
     <t>192590770</t>
   </si>
   <si>
+    <t>Teresa E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r188462142-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1434,6 +1701,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Roberto G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r185533409-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1452,6 +1722,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Joe D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r185434158-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1461,6 +1734,9 @@
     <t>11/21/2013</t>
   </si>
   <si>
+    <t>Christine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r180699820-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1479,6 +1755,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>karmapr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r179811886-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1500,6 +1779,9 @@
     <t>I selected this Ramada Inn primarily because, as a Wyndham customer I expect good quality in a Ramada Hotel; and because of its location right off of SR 60 and with easy access to other main arteries in the LA area. The first thing we encountered was a very warm and professional staff at the reception desk. That was the good part. Unfortunately, as soon as we proceeded down a long corridor to the very aged elevator, we could see signs of a deteriorated building in much need of more than just "a coat of paint"; and once inside the room, it was evident this property needed serious refurbishment and updating. While the superb staff was most commendable, their efforts alone cannot overcome the otherwise poor conditions of this Ramada and, sadly, we will not be going back there again.More</t>
   </si>
   <si>
+    <t>bixatthebeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r179751043-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1518,6 +1800,9 @@
     <t>We reserved this hotel because it was close to our customer visit.  We checked in and went to the room where we discovered mold on the walls, black hair in the shower and the hallways were dirty.  We went back to the front desk and told them we didn't want to stay.  They offered a refund.  A month later we discovered they had charged our credit card.  We had several calls with Jason the manager by phone.  The first time he said he would refund on the credit card.  After a month this had not happened, so we called back.  He again agreed to issue the refund but that we were blacklisted from the hotel.  What?  Also, they photocopied our credit card and drivers license.  This is not a good idea given the amount of credit card fraud going around.  Apparently it is "policy".  Anyway, a good place to avoid.More</t>
   </si>
   <si>
+    <t>Laura Y A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r172116869-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1530,6 +1815,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Caren K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r171539787-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1539,12 +1827,18 @@
     <t>08/09/2013</t>
   </si>
   <si>
+    <t>Adan Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r171473493-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
     <t>171473493</t>
   </si>
   <si>
+    <t>Nathan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r168997823-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1563,6 +1857,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Ken J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r168770450-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1572,6 +1869,9 @@
     <t>07/23/2013</t>
   </si>
   <si>
+    <t>Ernest L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r166674047-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1581,6 +1881,9 @@
     <t>07/07/2013</t>
   </si>
   <si>
+    <t>George M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r162831038-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1599,6 +1902,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Annette E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r161835984-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1614,6 +1920,9 @@
     <t>Location was good.Walls were thin.Breakfast could have been better.Wireless service was very poor.TV very few stations to choose fromShower head was set low- too low for my husband and he's only  6'2.</t>
   </si>
   <si>
+    <t>1000Hills</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r160848113-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1635,6 +1944,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Meiji W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r158036141-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1644,6 +1956,9 @@
     <t>04/17/2013</t>
   </si>
   <si>
+    <t>Carol C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r158031288-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1656,6 +1971,9 @@
     <t>What we noticed is the lack of TV stations on the tv.  No sports stations in the rooms and the bar area had no sports stations and we missed a great Lakers/Warriors game</t>
   </si>
   <si>
+    <t>Fred B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r156554354-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1668,6 +1986,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Paul F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r154037734-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1680,6 +2001,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Henry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r153876816-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1695,6 +2019,9 @@
     <t>Overall the hotel is fine and the rooms are fine. I wouldnt say it is an exceptional hotel as far as location, but i would stay there again. Staff was also friendly and accomidating.</t>
   </si>
   <si>
+    <t>Linda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r152855135-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1704,6 +2031,9 @@
     <t>02/23/2013</t>
   </si>
   <si>
+    <t>Matthew S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r150300777-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1716,6 +2046,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>KARENdallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r148716426-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1734,6 +2067,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>GEORGINA P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r146723154-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1752,12 +2088,18 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Paul D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r146693556-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
     <t>146693556</t>
   </si>
   <si>
+    <t>Eastcoaster007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r146467735-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1770,6 +2112,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>JohnBPhiladelphia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r144847061-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1779,12 +2124,18 @@
     <t>11/07/2012</t>
   </si>
   <si>
+    <t>Michelle E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r144845888-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
     <t>144845888</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r144821091-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1800,6 +2151,9 @@
     <t xml:space="preserve">i like to stay in this location,i think they have one of the best service everybody it very  Nicei thin everithing is perfect i dont have any conplains with the staff or the hotel. thank you and mcontinue </t>
   </si>
   <si>
+    <t>Olivia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r142431188-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1809,6 +2163,9 @@
     <t>10/09/2012</t>
   </si>
   <si>
+    <t>Peggy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r142225369-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1824,6 +2181,9 @@
     <t>Just makes me mad to even think about. Really? You require a min? Lucky I am even bothering. How about this? If the landscapers bother to rack, maybe cleaning all the cig butts out of the flowerbeds around the pool might be a good idea. Install an ashtray maybe. Or if you bother to salt the place with pop machines, actually have more than the one of three in the lobby be operational. Lame!</t>
   </si>
   <si>
+    <t>FIDMmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r142092992-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1848,6 +2208,9 @@
     <t>Hotel was conveniently located on a corner, with gas stations on two other corners, a Burger King on the other corner, and the entrance to the freeway within yards.  First room was located around the back, at the corner, with a dark stairway right beside.  Asked to be moved to the front of the hotel, and request was honored.  Staff was friendly enough.......... Jacob was a sweetheart.  Room was very spacious, with a living area upon entry, couch, counter, microwave and refrigerator.  Doors to close between to separate living/sleeping areas.  Large, flat-screen televisions - wonderful.  Bathroom was a little odd - shower head low, and towel racks inside shower.  Somehow it worked out, though.  Continental breakfast was ok.  Restaurant staff very friendly.  Cleaning employees respected request to not enter room.  Room had a safe, which was very nice.  Free parking!  Actual air conditioning, not a noisy window unit.More</t>
   </si>
   <si>
+    <t>Satem67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r135744476-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1875,6 +2238,9 @@
     <t>We made our reservations for 3 nights,because we were traveling for business meetings. The room has a foul smell and when we opened the fridge was really dirty and frozen with stains on the ice. They changed our room. The next morning as soon as I went to brush there was water dripping on my head. They changed my room on the other side of the wing, so we had to carry everything there and was late of my meeting.And now the 3rd room was not a pleasant one either and had no internet for my business purposes. I don't think I will ever stay at this hotel again.More</t>
   </si>
   <si>
+    <t>thankyoupaige</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r134525680-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1902,6 +2268,9 @@
     <t>I wish we had known what we were getting into.  This hotel was VERY loud with two parties going on.  Then...my kids and I were at the pool (where is clearly states no food or drink)...there were a bunch of men in the hot tubs with their bear cans strewn all around the place.  The staff wouldn't do it anything about it.  THEN....we went for our "free" continental breakfast which included bread and a bagel.  REALLY?  Juice was an extra $2 per glass!  We "upgraded" for $4 more!  Ugh...rediculous!!!!  Don't stay there!More</t>
   </si>
   <si>
+    <t>americangirl00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r134464390-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1920,6 +2289,9 @@
     <t>I stay at the Ramada in El Monte, CA every time I have to travel there for business and it is the most professional and genuinely nice staff and I stay in many hotels as I travel constantly in my work.  The hotel is clean and quiet.  My only wish is that the kitchen stayed open later as there is no place to go and get food without a car after business hours.More</t>
   </si>
   <si>
+    <t>Manuel T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r122594280-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1935,6 +2307,9 @@
     <t xml:space="preserve">I stay in the area twice a year and they defenely have the best value of the area spacious suites for the price of a regular motel room, can't get better than that </t>
   </si>
   <si>
+    <t>Ellena C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r117424792-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1953,6 +2328,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>heidii231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r117153169-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1971,6 +2349,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Akwinter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r69025640-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -1989,6 +2370,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>fridaynights</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r57389299-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -2010,6 +2394,9 @@
     <t>I’ve stayed here several times over the past year and I will continue to visit this location.   The staff has always been accommodating.  I typically make reservations via the web and make special requests.  Typically, I ask for the 4th floor and the larger balcony.  For a change, as compared to other hotel locations, the photos this hotel shows on the web site are truly representative of the property and the actual rooms with only slight room layout differences.  The bathroom is a good size and the water pressure is truly amazing!!  The massager shower head and lack of hot then cold water temperature deliver a wonderful shower experience.  The addition of a Rain shower head would be over the top! (Hint)Free Wi Fi is available and I had great connectivity in my room.   Something called a VCR is available in the living room area and AV jacks are located in front for DVD and Gaming consoles on both TV’s (not on flat screens ;-). Business travelers – The El Monte Airport is minutes away.Couples – Good way to impress partner.Traveling with kids – One game controller in bedroom area, shallow pool and Burger King across the street.Security – YesMore</t>
   </si>
   <si>
+    <t>lovemyDux</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r52593790-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
   </si>
   <si>
@@ -2026,6 +2413,9 @@
   </si>
   <si>
     <t>January 2010</t>
+  </si>
+  <si>
+    <t>Angela V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33112-d84396-r3520194-Ramada_by_Wyndham_South_El_Monte-South_El_Monte_California.html</t>
@@ -2548,43 +2938,47 @@
       <c r="A2" t="n">
         <v>28335</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2608,35 +3002,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28335</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2644,10 +3042,10 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2668,51 +3066,52 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28335</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2736,35 +3135,39 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28335</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2772,10 +3175,10 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2796,51 +3199,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28335</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>68</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2864,50 +3268,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28335</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2925,35 +3333,39 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28335</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2961,10 +3373,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2985,49 +3397,50 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28335</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -3051,50 +3464,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28335</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3118,35 +3535,39 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28335</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3154,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3178,36 +3599,37 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28335</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3215,10 +3637,10 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3239,36 +3661,37 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28335</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3276,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -3300,51 +3723,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28335</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3368,50 +3792,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28335</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3435,35 +3863,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28335</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -3471,10 +3903,10 @@
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3495,51 +3927,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28335</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3563,50 +3996,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28335</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3630,48 +4067,52 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28335</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3695,50 +4136,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28335</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3762,35 +4207,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28335</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -3798,10 +4247,10 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3822,36 +4271,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28335</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3859,10 +4309,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="O22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3883,36 +4333,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28335</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3920,10 +4371,10 @@
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -3944,36 +4395,37 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28335</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -3981,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4005,36 +4457,37 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28335</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -4042,10 +4495,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4066,51 +4519,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28335</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4134,35 +4588,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28335</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -4170,10 +4628,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4194,51 +4652,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28335</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="J28" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="K28" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4262,35 +4721,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28335</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4298,10 +4761,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4322,51 +4785,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28335</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4390,50 +4854,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28335</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="J31" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4457,50 +4925,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28335</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="J32" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -4524,35 +4996,39 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28335</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>225</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s"/>
@@ -4560,10 +5036,10 @@
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4584,36 +5060,37 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28335</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4621,10 +5098,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4645,51 +5122,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28335</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>234</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="J35" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L35" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4713,35 +5191,39 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28335</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>240</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
@@ -4749,10 +5231,10 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4773,51 +5255,52 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28335</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="J37" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4841,35 +5324,39 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28335</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="J38" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
@@ -4877,10 +5364,10 @@
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4901,51 +5388,52 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28335</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>256</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="J39" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="O39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4969,50 +5457,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28335</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>262</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="K40" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="O40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5036,35 +5528,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28335</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="J41" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -5072,10 +5568,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5096,36 +5592,37 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28335</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>273</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="J42" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5133,10 +5630,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="O42" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5157,51 +5654,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28335</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>278</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="J43" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="K43" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5221,50 +5719,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28335</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="K44" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="L44" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5288,50 +5790,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28335</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="J45" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="K45" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="L45" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="O45" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5355,50 +5861,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28335</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="J46" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5422,48 +5932,52 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28335</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>303</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="J47" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5487,50 +6001,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28335</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="J48" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="K48" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="L48" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5554,50 +6072,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28335</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="J49" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="O49" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5621,50 +6143,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28335</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="J50" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="K50" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="O50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5682,35 +6208,39 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28335</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>329</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="J51" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -5718,10 +6248,10 @@
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5742,51 +6272,52 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28335</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>333</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="J52" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="K52" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="O52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5802,50 +6333,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28335</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>339</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="J53" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="K53" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5869,35 +6404,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28335</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>346</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="J54" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5905,10 +6444,10 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5929,51 +6468,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28335</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>351</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="J55" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="K55" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="O55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5997,50 +6537,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28335</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>357</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="J56" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="K56" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="O56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6064,50 +6608,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28335</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>364</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
       <c r="J57" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="K57" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="L57" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="O57" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6131,35 +6679,39 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28335</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>370</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="J58" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -6167,10 +6719,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6191,36 +6743,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28335</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="J59" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -6228,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6252,36 +6805,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28335</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>378</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="J60" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -6289,10 +6843,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="O60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6313,51 +6867,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28335</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>382</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="J61" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="O61" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6381,50 +6936,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28335</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>389</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="J62" t="s">
-        <v>332</v>
+        <v>392</v>
       </c>
       <c r="K62" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
       <c r="L62" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="O62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6444,35 +7003,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28335</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>396</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="J63" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -6480,10 +7043,10 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="O63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6504,51 +7067,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28335</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>401</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="J64" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="O64" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6562,35 +7126,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>345</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28335</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>364</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="J65" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6598,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="O65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6622,51 +7190,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28335</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>412</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="J66" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="K66" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="L66" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6690,50 +7259,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28335</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>419</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="J67" t="s">
-        <v>358</v>
+        <v>422</v>
       </c>
       <c r="K67" t="s">
-        <v>359</v>
+        <v>423</v>
       </c>
       <c r="L67" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="O67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6747,35 +7320,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28335</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>426</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="J68" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6783,10 +7360,10 @@
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="O68" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6807,51 +7384,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28335</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>431</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="J69" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="K69" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="O69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6875,50 +7453,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28335</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>438</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="J70" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="K70" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="L70" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6942,35 +7524,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28335</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>444</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="J71" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -6978,10 +7564,10 @@
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7002,51 +7588,52 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28335</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>448</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="J72" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="K72" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="L72" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7070,35 +7657,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28335</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>454</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="J73" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7106,10 +7697,10 @@
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7130,51 +7721,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28335</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>458</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>389</v>
+        <v>460</v>
       </c>
       <c r="J74" t="s">
-        <v>390</v>
+        <v>461</v>
       </c>
       <c r="K74" t="s">
-        <v>391</v>
+        <v>462</v>
       </c>
       <c r="L74" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="O74" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7198,35 +7790,39 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28335</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>464</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="J75" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -7234,10 +7830,10 @@
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="O75" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7258,51 +7854,52 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28335</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>468</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="J76" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="K76" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="L76" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="O76" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7326,35 +7923,39 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28335</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>475</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="J77" t="s">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -7362,10 +7963,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="O77" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7386,36 +7987,37 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28335</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>480</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="J78" t="s">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="K78" t="s"/>
       <c r="L78" t="s"/>
@@ -7423,10 +8025,10 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>405</v>
+        <v>479</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7447,42 +8049,43 @@
       <c r="V78" t="n">
         <v>0</v>
       </c>
-      <c r="W78" t="s"/>
-      <c r="X78" t="s"/>
-      <c r="Y78" t="s"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28335</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>484</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="J79" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="K79" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="L79" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
@@ -7511,48 +8114,52 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>28335</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>491</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="J80" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="O80" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7576,50 +8183,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>28335</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>496</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>420</v>
+        <v>498</v>
       </c>
       <c r="J81" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="K81" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="L81" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="O81" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -7633,50 +8244,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>28335</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>503</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>425</v>
+        <v>504</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>426</v>
+        <v>505</v>
       </c>
       <c r="J82" t="s">
-        <v>427</v>
+        <v>506</v>
       </c>
       <c r="K82" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="L82" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7696,50 +8311,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>28335</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>511</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="J83" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="K83" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="L83" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="O83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7753,35 +8372,39 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>28335</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>518</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="J84" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s"/>
@@ -7789,10 +8412,10 @@
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>2</v>
@@ -7813,51 +8436,52 @@
       <c r="V84" t="n">
         <v>0</v>
       </c>
-      <c r="W84" t="s"/>
-      <c r="X84" t="s"/>
-      <c r="Y84" t="s"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>28335</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>523</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="J85" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="K85" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="L85" t="s">
-        <v>446</v>
+        <v>528</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="O85" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7881,48 +8505,52 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>28335</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>530</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="J86" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="K86" t="s"/>
       <c r="L86" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="O86" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7946,35 +8574,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>28335</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>534</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="J87" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7982,10 +8614,10 @@
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8006,36 +8638,37 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28335</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>538</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="J88" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -8043,10 +8676,10 @@
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8067,36 +8700,37 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28335</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>543</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>458</v>
+        <v>544</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>459</v>
+        <v>545</v>
       </c>
       <c r="J89" t="s">
-        <v>460</v>
+        <v>546</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -8104,10 +8738,10 @@
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -8128,36 +8762,37 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>28335</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>548</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>463</v>
+        <v>550</v>
       </c>
       <c r="J90" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
       <c r="K90" t="s"/>
       <c r="L90" t="s"/>
@@ -8165,10 +8800,10 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8189,36 +8824,37 @@
       <c r="V90" t="n">
         <v>0</v>
       </c>
-      <c r="W90" t="s"/>
-      <c r="X90" t="s"/>
-      <c r="Y90" t="s"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>28335</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>553</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>467</v>
+        <v>555</v>
       </c>
       <c r="J91" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8226,10 +8862,10 @@
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="O91" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8250,36 +8886,37 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>28335</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>556</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
       <c r="J92" t="s">
-        <v>470</v>
+        <v>559</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -8287,10 +8924,10 @@
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8311,51 +8948,52 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>28335</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>561</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>562</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>473</v>
+        <v>563</v>
       </c>
       <c r="J93" t="s">
-        <v>474</v>
+        <v>564</v>
       </c>
       <c r="K93" t="s">
-        <v>475</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s">
-        <v>476</v>
+        <v>566</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="O93" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8379,35 +9017,39 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>476</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>28335</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>568</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>478</v>
+        <v>569</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
       <c r="J94" t="s">
-        <v>480</v>
+        <v>571</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8415,10 +9057,10 @@
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="O94" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -8439,51 +9081,52 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>28335</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>572</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
       <c r="J95" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
       <c r="K95" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
       <c r="L95" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="O95" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8507,50 +9150,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>28335</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>579</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>487</v>
+        <v>580</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>488</v>
+        <v>581</v>
       </c>
       <c r="J96" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="K96" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="L96" t="s">
-        <v>491</v>
+        <v>584</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="O96" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -8574,50 +9221,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>493</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>28335</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>587</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="J97" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="K97" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="L97" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="O97" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8639,48 +9290,52 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>28335</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>594</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>501</v>
+        <v>596</v>
       </c>
       <c r="J98" t="s">
-        <v>502</v>
+        <v>597</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>2</v>
@@ -8704,35 +9359,39 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>28335</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>599</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
       <c r="J99" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="K99" t="s"/>
       <c r="L99" t="s"/>
@@ -8740,10 +9399,10 @@
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8764,36 +9423,37 @@
       <c r="V99" t="n">
         <v>0</v>
       </c>
-      <c r="W99" t="s"/>
-      <c r="X99" t="s"/>
-      <c r="Y99" t="s"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>28335</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>603</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>507</v>
+        <v>604</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>508</v>
+        <v>605</v>
       </c>
       <c r="J100" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="K100" t="s"/>
       <c r="L100" t="s"/>
@@ -8801,10 +9461,10 @@
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="O100" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8825,51 +9485,52 @@
       <c r="V100" t="n">
         <v>0</v>
       </c>
-      <c r="W100" t="s"/>
-      <c r="X100" t="s"/>
-      <c r="Y100" t="s"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>28335</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>606</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="J101" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="K101" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="L101" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="O101" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -8893,35 +9554,39 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>28335</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>613</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>515</v>
+        <v>614</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>516</v>
+        <v>615</v>
       </c>
       <c r="J102" t="s">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -8929,10 +9594,10 @@
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -8953,36 +9618,37 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>28335</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>617</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>519</v>
+        <v>619</v>
       </c>
       <c r="J103" t="s">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s"/>
@@ -8990,10 +9656,10 @@
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="O103" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9014,51 +9680,52 @@
       <c r="V103" t="n">
         <v>0</v>
       </c>
-      <c r="W103" t="s"/>
-      <c r="X103" t="s"/>
-      <c r="Y103" t="s"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>28335</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>621</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>521</v>
+        <v>622</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>522</v>
+        <v>623</v>
       </c>
       <c r="J104" t="s">
-        <v>523</v>
+        <v>624</v>
       </c>
       <c r="K104" t="s">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="L104" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
       <c r="O104" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9082,50 +9749,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>28335</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>628</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>527</v>
+        <v>629</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>528</v>
+        <v>630</v>
       </c>
       <c r="J105" t="s">
-        <v>529</v>
+        <v>631</v>
       </c>
       <c r="K105" t="s">
-        <v>530</v>
+        <v>632</v>
       </c>
       <c r="L105" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
       <c r="O105" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9149,35 +9820,39 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>28335</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>634</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>533</v>
+        <v>636</v>
       </c>
       <c r="J106" t="s">
-        <v>534</v>
+        <v>637</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s"/>
@@ -9185,10 +9860,10 @@
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
       <c r="O106" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -9209,36 +9884,37 @@
       <c r="V106" t="n">
         <v>0</v>
       </c>
-      <c r="W106" t="s"/>
-      <c r="X106" t="s"/>
-      <c r="Y106" t="s"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>28335</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>444</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>535</v>
+        <v>638</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>536</v>
+        <v>639</v>
       </c>
       <c r="J107" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="K107" t="s"/>
       <c r="L107" t="s"/>
@@ -9246,10 +9922,10 @@
         <v>3</v>
       </c>
       <c r="N107" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="O107" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9270,36 +9946,37 @@
       <c r="V107" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="s"/>
-      <c r="X107" t="s"/>
-      <c r="Y107" t="s"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>28335</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>642</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>540</v>
+        <v>644</v>
       </c>
       <c r="J108" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="K108" t="s"/>
       <c r="L108" t="s"/>
@@ -9307,10 +9984,10 @@
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9331,51 +10008,52 @@
       <c r="V108" t="n">
         <v>0</v>
       </c>
-      <c r="W108" t="s"/>
-      <c r="X108" t="s"/>
-      <c r="Y108" t="s"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>28335</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>646</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>542</v>
+        <v>647</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>543</v>
+        <v>648</v>
       </c>
       <c r="J109" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="K109" t="s">
-        <v>544</v>
+        <v>649</v>
       </c>
       <c r="L109" t="s">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="s">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9399,35 +10077,39 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>545</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>28335</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>651</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>547</v>
+        <v>653</v>
       </c>
       <c r="J110" t="s">
-        <v>548</v>
+        <v>654</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s"/>
@@ -9435,10 +10117,10 @@
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="O110" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9459,49 +10141,50 @@
       <c r="V110" t="n">
         <v>0</v>
       </c>
-      <c r="W110" t="s"/>
-      <c r="X110" t="s"/>
-      <c r="Y110" t="s"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>28335</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>656</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>550</v>
+        <v>657</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>551</v>
+        <v>658</v>
       </c>
       <c r="J111" t="s">
-        <v>552</v>
+        <v>659</v>
       </c>
       <c r="K111" t="s"/>
       <c r="L111" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>553</v>
+        <v>660</v>
       </c>
       <c r="O111" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -9525,50 +10208,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>28335</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>661</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>554</v>
+        <v>662</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>555</v>
+        <v>663</v>
       </c>
       <c r="J112" t="s">
-        <v>556</v>
+        <v>664</v>
       </c>
       <c r="K112" t="s">
-        <v>557</v>
+        <v>665</v>
       </c>
       <c r="L112" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>553</v>
+        <v>660</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -9592,35 +10279,39 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>558</v>
+        <v>666</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>28335</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>667</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>559</v>
+        <v>668</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>560</v>
+        <v>669</v>
       </c>
       <c r="J113" t="s">
-        <v>561</v>
+        <v>670</v>
       </c>
       <c r="K113" t="s"/>
       <c r="L113" t="s"/>
@@ -9628,10 +10319,10 @@
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>553</v>
+        <v>660</v>
       </c>
       <c r="O113" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9652,36 +10343,37 @@
       <c r="V113" t="n">
         <v>0</v>
       </c>
-      <c r="W113" t="s"/>
-      <c r="X113" t="s"/>
-      <c r="Y113" t="s"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>28335</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>671</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>562</v>
+        <v>672</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>563</v>
+        <v>673</v>
       </c>
       <c r="J114" t="s">
-        <v>564</v>
+        <v>674</v>
       </c>
       <c r="K114" t="s"/>
       <c r="L114" t="s"/>
@@ -9689,10 +10381,10 @@
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>565</v>
+        <v>675</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -9713,51 +10405,52 @@
       <c r="V114" t="n">
         <v>0</v>
       </c>
-      <c r="W114" t="s"/>
-      <c r="X114" t="s"/>
-      <c r="Y114" t="s"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>28335</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>676</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>566</v>
+        <v>677</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>567</v>
+        <v>678</v>
       </c>
       <c r="J115" t="s">
-        <v>568</v>
+        <v>679</v>
       </c>
       <c r="K115" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="L115" t="s">
-        <v>570</v>
+        <v>681</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>571</v>
+        <v>682</v>
       </c>
       <c r="O115" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -9781,50 +10474,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>570</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>28335</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>683</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>572</v>
+        <v>684</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>573</v>
+        <v>685</v>
       </c>
       <c r="J116" t="s">
-        <v>574</v>
+        <v>686</v>
       </c>
       <c r="K116" t="s">
-        <v>575</v>
+        <v>687</v>
       </c>
       <c r="L116" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="O116" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P116" t="n">
         <v>1</v>
@@ -9848,35 +10545,39 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>28335</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>690</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>579</v>
+        <v>692</v>
       </c>
       <c r="J117" t="s">
-        <v>574</v>
+        <v>686</v>
       </c>
       <c r="K117" t="s"/>
       <c r="L117" t="s"/>
@@ -9884,10 +10585,10 @@
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="O117" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -9906,36 +10607,37 @@
       <c r="V117" t="n">
         <v>0</v>
       </c>
-      <c r="W117" t="s"/>
-      <c r="X117" t="s"/>
-      <c r="Y117" t="s"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>28335</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>693</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="J118" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="K118" t="s"/>
       <c r="L118" t="s"/>
@@ -9943,10 +10645,10 @@
         <v>5</v>
       </c>
       <c r="N118" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="O118" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -9967,36 +10669,37 @@
       <c r="V118" t="n">
         <v>0</v>
       </c>
-      <c r="W118" t="s"/>
-      <c r="X118" t="s"/>
-      <c r="Y118" t="s"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>28335</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>698</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>584</v>
+        <v>699</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>585</v>
+        <v>700</v>
       </c>
       <c r="J119" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
       <c r="K119" t="s"/>
       <c r="L119" t="s"/>
@@ -10004,10 +10707,10 @@
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="O119" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P119" t="n">
         <v>4</v>
@@ -10028,36 +10731,37 @@
       <c r="V119" t="n">
         <v>0</v>
       </c>
-      <c r="W119" t="s"/>
-      <c r="X119" t="s"/>
-      <c r="Y119" t="s"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>28335</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>702</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>587</v>
+        <v>703</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>588</v>
+        <v>704</v>
       </c>
       <c r="J120" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
       <c r="K120" t="s"/>
       <c r="L120" t="s"/>
@@ -10065,10 +10769,10 @@
         <v>3</v>
       </c>
       <c r="N120" t="s">
-        <v>577</v>
+        <v>689</v>
       </c>
       <c r="O120" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P120" t="n">
         <v>4</v>
@@ -10089,51 +10793,52 @@
       <c r="V120" t="n">
         <v>0</v>
       </c>
-      <c r="W120" t="s"/>
-      <c r="X120" t="s"/>
-      <c r="Y120" t="s"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>28335</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>705</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>589</v>
+        <v>706</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>590</v>
+        <v>707</v>
       </c>
       <c r="J121" t="s">
-        <v>591</v>
+        <v>708</v>
       </c>
       <c r="K121" t="s">
-        <v>592</v>
+        <v>709</v>
       </c>
       <c r="L121" t="s">
-        <v>593</v>
+        <v>710</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="O121" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P121" t="n">
         <v>5</v>
@@ -10157,35 +10862,39 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>593</v>
+        <v>710</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>28335</v>
       </c>
-      <c r="B122" t="s"/>
-      <c r="C122" t="s"/>
+      <c r="B122" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>711</v>
+      </c>
       <c r="D122" t="n">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>594</v>
+        <v>712</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" t="s">
-        <v>595</v>
+        <v>713</v>
       </c>
       <c r="J122" t="s">
-        <v>596</v>
+        <v>714</v>
       </c>
       <c r="K122" t="s"/>
       <c r="L122" t="s"/>
@@ -10193,10 +10902,10 @@
         <v>4</v>
       </c>
       <c r="N122" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="O122" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P122" t="n">
         <v>3</v>
@@ -10217,51 +10926,52 @@
       <c r="V122" t="n">
         <v>0</v>
       </c>
-      <c r="W122" t="s"/>
-      <c r="X122" t="s"/>
-      <c r="Y122" t="s"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>28335</v>
       </c>
-      <c r="B123" t="s"/>
-      <c r="C123" t="s"/>
+      <c r="B123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>715</v>
+      </c>
       <c r="D123" t="n">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>597</v>
+        <v>716</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" t="s">
-        <v>598</v>
+        <v>717</v>
       </c>
       <c r="J123" t="s">
-        <v>599</v>
+        <v>718</v>
       </c>
       <c r="K123" t="s">
-        <v>600</v>
+        <v>719</v>
       </c>
       <c r="L123" t="s">
-        <v>601</v>
+        <v>720</v>
       </c>
       <c r="M123" t="n">
         <v>2</v>
       </c>
       <c r="N123" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="O123" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P123" t="n">
         <v>2</v>
@@ -10285,50 +10995,54 @@
       <c r="W123" t="s"/>
       <c r="X123" t="s"/>
       <c r="Y123" t="s">
-        <v>601</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>28335</v>
       </c>
-      <c r="B124" t="s"/>
-      <c r="C124" t="s"/>
+      <c r="B124" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>721</v>
+      </c>
       <c r="D124" t="n">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>602</v>
+        <v>722</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I124" t="s">
-        <v>603</v>
+        <v>723</v>
       </c>
       <c r="J124" t="s">
-        <v>604</v>
+        <v>724</v>
       </c>
       <c r="K124" t="s">
-        <v>605</v>
+        <v>725</v>
       </c>
       <c r="L124" t="s">
-        <v>606</v>
+        <v>726</v>
       </c>
       <c r="M124" t="n">
         <v>3</v>
       </c>
       <c r="N124" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="O124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P124" t="n">
         <v>4</v>
@@ -10350,56 +11064,60 @@
         <v>0</v>
       </c>
       <c r="W124" t="s">
-        <v>607</v>
+        <v>727</v>
       </c>
       <c r="X124" t="s">
-        <v>608</v>
+        <v>728</v>
       </c>
       <c r="Y124" t="s">
-        <v>609</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>28335</v>
       </c>
-      <c r="B125" t="s"/>
-      <c r="C125" t="s"/>
+      <c r="B125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>730</v>
+      </c>
       <c r="D125" t="n">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>610</v>
+        <v>731</v>
       </c>
       <c r="G125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I125" t="s">
-        <v>611</v>
+        <v>732</v>
       </c>
       <c r="J125" t="s">
-        <v>612</v>
+        <v>733</v>
       </c>
       <c r="K125" t="s">
-        <v>613</v>
+        <v>734</v>
       </c>
       <c r="L125" t="s">
-        <v>614</v>
+        <v>735</v>
       </c>
       <c r="M125" t="n">
         <v>3</v>
       </c>
       <c r="N125" t="s">
-        <v>615</v>
+        <v>736</v>
       </c>
       <c r="O125" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P125" t="n">
         <v>3</v>
@@ -10421,56 +11139,60 @@
         <v>0</v>
       </c>
       <c r="W125" t="s">
-        <v>616</v>
+        <v>737</v>
       </c>
       <c r="X125" t="s">
-        <v>617</v>
+        <v>738</v>
       </c>
       <c r="Y125" t="s">
-        <v>618</v>
+        <v>739</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>28335</v>
       </c>
-      <c r="B126" t="s"/>
-      <c r="C126" t="s"/>
+      <c r="B126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>740</v>
+      </c>
       <c r="D126" t="n">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>619</v>
+        <v>741</v>
       </c>
       <c r="G126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I126" t="s">
-        <v>620</v>
+        <v>742</v>
       </c>
       <c r="J126" t="s">
-        <v>621</v>
+        <v>743</v>
       </c>
       <c r="K126" t="s">
-        <v>622</v>
+        <v>744</v>
       </c>
       <c r="L126" t="s">
-        <v>623</v>
+        <v>745</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
       </c>
       <c r="N126" t="s">
-        <v>624</v>
+        <v>746</v>
       </c>
       <c r="O126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P126" t="n">
         <v>2</v>
@@ -10492,56 +11214,60 @@
         <v>0</v>
       </c>
       <c r="W126" t="s">
-        <v>625</v>
+        <v>747</v>
       </c>
       <c r="X126" t="s">
-        <v>626</v>
+        <v>748</v>
       </c>
       <c r="Y126" t="s">
-        <v>627</v>
+        <v>749</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>28335</v>
       </c>
-      <c r="B127" t="s"/>
-      <c r="C127" t="s"/>
+      <c r="B127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>750</v>
+      </c>
       <c r="D127" t="n">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F127" t="s">
-        <v>628</v>
+        <v>751</v>
       </c>
       <c r="G127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127" t="s">
-        <v>629</v>
+        <v>752</v>
       </c>
       <c r="J127" t="s">
-        <v>630</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s">
-        <v>631</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s">
-        <v>632</v>
+        <v>755</v>
       </c>
       <c r="M127" t="n">
         <v>5</v>
       </c>
       <c r="N127" t="s">
-        <v>624</v>
+        <v>746</v>
       </c>
       <c r="O127" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P127" t="n">
         <v>5</v>
@@ -10563,47 +11289,51 @@
         <v>0</v>
       </c>
       <c r="W127" t="s">
-        <v>625</v>
+        <v>747</v>
       </c>
       <c r="X127" t="s">
-        <v>626</v>
+        <v>748</v>
       </c>
       <c r="Y127" t="s">
-        <v>633</v>
+        <v>756</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>28335</v>
       </c>
-      <c r="B128" t="s"/>
-      <c r="C128" t="s"/>
+      <c r="B128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>757</v>
+      </c>
       <c r="D128" t="n">
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>634</v>
+        <v>758</v>
       </c>
       <c r="G128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I128" t="s">
-        <v>635</v>
+        <v>759</v>
       </c>
       <c r="J128" t="s">
-        <v>636</v>
+        <v>760</v>
       </c>
       <c r="K128" t="s">
-        <v>637</v>
+        <v>761</v>
       </c>
       <c r="L128" t="s">
-        <v>638</v>
+        <v>762</v>
       </c>
       <c r="M128" t="n">
         <v>4</v>
@@ -10632,50 +11362,54 @@
       <c r="W128" t="s"/>
       <c r="X128" t="s"/>
       <c r="Y128" t="s">
-        <v>638</v>
+        <v>762</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>28335</v>
       </c>
-      <c r="B129" t="s"/>
-      <c r="C129" t="s"/>
+      <c r="B129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>763</v>
+      </c>
       <c r="D129" t="n">
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>639</v>
+        <v>764</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I129" t="s">
-        <v>640</v>
+        <v>765</v>
       </c>
       <c r="J129" t="s">
-        <v>641</v>
+        <v>766</v>
       </c>
       <c r="K129" t="s">
-        <v>642</v>
+        <v>767</v>
       </c>
       <c r="L129" t="s">
-        <v>643</v>
+        <v>768</v>
       </c>
       <c r="M129" t="n">
         <v>5</v>
       </c>
       <c r="N129" t="s">
-        <v>644</v>
+        <v>769</v>
       </c>
       <c r="O129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P129" t="n">
         <v>4</v>
@@ -10695,50 +11429,54 @@
       <c r="W129" t="s"/>
       <c r="X129" t="s"/>
       <c r="Y129" t="s">
-        <v>643</v>
+        <v>768</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>28335</v>
       </c>
-      <c r="B130" t="s"/>
-      <c r="C130" t="s"/>
+      <c r="B130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>770</v>
+      </c>
       <c r="D130" t="n">
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F130" t="s">
-        <v>645</v>
+        <v>771</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I130" t="s">
-        <v>646</v>
+        <v>772</v>
       </c>
       <c r="J130" t="s">
-        <v>647</v>
+        <v>773</v>
       </c>
       <c r="K130" t="s">
-        <v>648</v>
+        <v>774</v>
       </c>
       <c r="L130" t="s">
-        <v>649</v>
+        <v>775</v>
       </c>
       <c r="M130" t="n">
         <v>5</v>
       </c>
       <c r="N130" t="s">
-        <v>650</v>
+        <v>776</v>
       </c>
       <c r="O130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P130" t="n">
         <v>4</v>
@@ -10758,50 +11496,54 @@
       <c r="W130" t="s"/>
       <c r="X130" t="s"/>
       <c r="Y130" t="s">
-        <v>649</v>
+        <v>775</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>28335</v>
       </c>
-      <c r="B131" t="s"/>
-      <c r="C131" t="s"/>
+      <c r="B131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>777</v>
+      </c>
       <c r="D131" t="n">
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" t="s">
-        <v>651</v>
+        <v>778</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I131" t="s">
-        <v>652</v>
+        <v>779</v>
       </c>
       <c r="J131" t="s">
-        <v>653</v>
+        <v>780</v>
       </c>
       <c r="K131" t="s">
-        <v>654</v>
+        <v>781</v>
       </c>
       <c r="L131" t="s">
-        <v>655</v>
+        <v>782</v>
       </c>
       <c r="M131" t="n">
         <v>4</v>
       </c>
       <c r="N131" t="s">
-        <v>656</v>
+        <v>783</v>
       </c>
       <c r="O131" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P131" t="n">
         <v>5</v>
@@ -10825,50 +11567,54 @@
       <c r="W131" t="s"/>
       <c r="X131" t="s"/>
       <c r="Y131" t="s">
-        <v>655</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>28335</v>
       </c>
-      <c r="B132" t="s"/>
-      <c r="C132" t="s"/>
+      <c r="B132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>784</v>
+      </c>
       <c r="D132" t="n">
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>657</v>
+        <v>785</v>
       </c>
       <c r="G132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I132" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="J132" t="s">
-        <v>659</v>
+        <v>787</v>
       </c>
       <c r="K132" t="s">
-        <v>660</v>
+        <v>788</v>
       </c>
       <c r="L132" t="s">
-        <v>661</v>
+        <v>789</v>
       </c>
       <c r="M132" t="n">
         <v>4</v>
       </c>
       <c r="N132" t="s">
-        <v>662</v>
+        <v>790</v>
       </c>
       <c r="O132" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P132" t="n">
         <v>4</v>
@@ -10892,50 +11638,54 @@
       <c r="W132" t="s"/>
       <c r="X132" t="s"/>
       <c r="Y132" t="s">
-        <v>663</v>
+        <v>791</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>28335</v>
       </c>
-      <c r="B133" t="s"/>
-      <c r="C133" t="s"/>
+      <c r="B133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>792</v>
+      </c>
       <c r="D133" t="n">
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F133" t="s">
-        <v>664</v>
+        <v>793</v>
       </c>
       <c r="G133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I133" t="s">
-        <v>665</v>
+        <v>794</v>
       </c>
       <c r="J133" t="s">
-        <v>666</v>
+        <v>795</v>
       </c>
       <c r="K133" t="s">
-        <v>667</v>
+        <v>796</v>
       </c>
       <c r="L133" t="s">
-        <v>668</v>
+        <v>797</v>
       </c>
       <c r="M133" t="n">
         <v>4</v>
       </c>
       <c r="N133" t="s">
-        <v>669</v>
+        <v>798</v>
       </c>
       <c r="O133" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P133" t="n">
         <v>4</v>
@@ -10959,41 +11709,45 @@
       <c r="W133" t="s"/>
       <c r="X133" t="s"/>
       <c r="Y133" t="s">
-        <v>668</v>
+        <v>797</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>28335</v>
       </c>
-      <c r="B134" t="s"/>
-      <c r="C134" t="s"/>
+      <c r="B134" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>799</v>
+      </c>
       <c r="D134" t="n">
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I134" t="s">
-        <v>671</v>
+        <v>801</v>
       </c>
       <c r="J134" t="s">
-        <v>672</v>
+        <v>802</v>
       </c>
       <c r="K134" t="s">
-        <v>673</v>
+        <v>803</v>
       </c>
       <c r="L134" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="M134" t="n">
         <v>4</v>
@@ -11020,7 +11774,7 @@
       <c r="W134" t="s"/>
       <c r="X134" t="s"/>
       <c r="Y134" t="s">
-        <v>675</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
